--- a/DMP/Report/Template/DQA FY2018 Q3/DATIM PIVOT TABLE FOR Q3 FY18.xlsx
+++ b/DMP/Report/Template/DQA FY2018 Q3/DATIM PIVOT TABLE FOR Q3 FY18.xlsx
@@ -1,91 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHIELD ACTIVITIES\Program DQA and Improvement\DQA\DQA FY18 Q3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MGIC\Project\ShieldPortal\DMP\Report\Template\DQA FY2018 Q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F158C8C3-17FE-43BF-86D3-C3A146199AB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8600"/>
   </bookViews>
   <sheets>
     <sheet name="Facility Pivot Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>organisationunitid</t>
   </si>
   <si>
     <t>organisationunitname</t>
-  </si>
-  <si>
-    <t>qGQliH5UA4W</t>
-  </si>
-  <si>
-    <t>Aboh Mbaise General Hospital</t>
-  </si>
-  <si>
-    <t>vidxf7Mjwn0</t>
-  </si>
-  <si>
-    <t>Holy Rosary Hospital Ogbor Nguru</t>
-  </si>
-  <si>
-    <t>NiviaoJZNyh</t>
-  </si>
-  <si>
-    <t>Mbutu Primary Health Center</t>
-  </si>
-  <si>
-    <t>ccEqDMosxj8</t>
-  </si>
-  <si>
-    <t>Nkworgwu Health Center</t>
-  </si>
-  <si>
-    <t>jRwU6kFKmtR</t>
-  </si>
-  <si>
-    <t>Ekwereazu Town Primary Health Center</t>
-  </si>
-  <si>
-    <t>ssrXK0edvoQ</t>
-  </si>
-  <si>
-    <t>Nnariambia Primary Health Center</t>
-  </si>
-  <si>
-    <t>iv0qlMT9FCJ</t>
-  </si>
-  <si>
-    <t>Amuzu Primary Health Center</t>
-  </si>
-  <si>
-    <t>NaG6FuzlAnL</t>
-  </si>
-  <si>
-    <t>Umuokirika Primary Health Center</t>
-  </si>
-  <si>
-    <t>Eastern Nigeria Medical Center</t>
-  </si>
-  <si>
-    <t>QiypT8ow3mI</t>
-  </si>
-  <si>
-    <t>Mbieri General Hospital</t>
-  </si>
-  <si>
-    <t>aMKXrfGkE1q</t>
   </si>
   <si>
     <t xml:space="preserve">PMTCT_STAT (N, DSD, Age/KnownNewResult): Known Results </t>
@@ -124,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,35 +894,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="10.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1796875" style="3"/>
+    <col min="17" max="17" width="10.81640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.26953125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,357 +930,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3">
-        <v>160</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K4" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>5</v>
-      </c>
-      <c r="K4" s="8">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3600</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>193</v>
-      </c>
-      <c r="D7" s="3">
-        <v>160</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
-        <v>6</v>
-      </c>
-      <c r="K7" s="8">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10</v>
-      </c>
-      <c r="M7" s="3">
-        <v>422</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3">
-        <v>67</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>5</v>
-      </c>
-      <c r="K10" s="8">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3">
-        <v>10</v>
-      </c>
-      <c r="M11" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="N12" s="8"/>
